--- a/data/trans_orig/P17_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>269270</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>246954</v>
+        <v>247512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>291697</v>
+        <v>291237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5481329436428303</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5027073804437968</v>
+        <v>0.5038429092738349</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5937856630684721</v>
+        <v>0.5928496631047646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>335</v>
@@ -765,19 +765,19 @@
         <v>318574</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>300504</v>
+        <v>299114</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>336330</v>
+        <v>338366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6814571490050256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6428053588429178</v>
+        <v>0.639831227250715</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7194391683866733</v>
+        <v>0.7237935663025965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>607</v>
@@ -786,19 +786,19 @@
         <v>587843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>557056</v>
+        <v>559201</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>615381</v>
+        <v>616481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6131430051708964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.581030467152941</v>
+        <v>0.5832673913914678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6418659931912321</v>
+        <v>0.6430126376232475</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>221979</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199552</v>
+        <v>200012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244295</v>
+        <v>243737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4518670563571697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4062143369315279</v>
+        <v>0.4071503368952352</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4972926195562031</v>
+        <v>0.4961570907261652</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -836,19 +836,19 @@
         <v>148915</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>131159</v>
+        <v>129123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166985</v>
+        <v>168375</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3185428509949743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2805608316133265</v>
+        <v>0.2762064336974042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3571946411570823</v>
+        <v>0.3601687727492852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>378</v>
@@ -857,19 +857,19 @@
         <v>370895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343357</v>
+        <v>342257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>401682</v>
+        <v>399537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3868569948291037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3581340068087682</v>
+        <v>0.3569873623767529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.418969532847059</v>
+        <v>0.4167326086085327</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>363425</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>336645</v>
+        <v>337592</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>389924</v>
+        <v>393142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4963338618207621</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4597603457277609</v>
+        <v>0.4610545294069262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5325250711352242</v>
+        <v>0.5369196617886383</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>424</v>
@@ -982,19 +982,19 @@
         <v>447705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>425445</v>
+        <v>422638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>472235</v>
+        <v>469860</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7157617822882855</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6801745616273502</v>
+        <v>0.6756862867006402</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7549792624447291</v>
+        <v>0.7511821331267499</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>774</v>
@@ -1003,19 +1003,19 @@
         <v>811129</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>776522</v>
+        <v>773154</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>847620</v>
+        <v>848315</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.597423646089375</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5719342586191664</v>
+        <v>0.5694537711707137</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6242999479296129</v>
+        <v>0.6248121862783631</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>368793</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>342294</v>
+        <v>339076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>395573</v>
+        <v>394626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5036661381792379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4674749288647757</v>
+        <v>0.4630803382113615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5402396542722389</v>
+        <v>0.5389454705930738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>167</v>
@@ -1053,19 +1053,19 @@
         <v>177789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>153259</v>
+        <v>155634</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>200049</v>
+        <v>202856</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2842382177117145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2450207375552709</v>
+        <v>0.2488178668732501</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.31982543837265</v>
+        <v>0.3243137132993598</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>517</v>
@@ -1074,19 +1074,19 @@
         <v>546583</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>510092</v>
+        <v>509397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>581190</v>
+        <v>584558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4025763539106249</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3757000520703874</v>
+        <v>0.3751878137216368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4280657413808336</v>
+        <v>0.4305462288292858</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>362140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>334012</v>
+        <v>334230</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>386481</v>
+        <v>387309</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5677464248997481</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5236472927627199</v>
+        <v>0.5239895729916536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6059056869990805</v>
+        <v>0.6072051084160526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>451</v>
@@ -1199,19 +1199,19 @@
         <v>474120</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>449551</v>
+        <v>449860</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>497663</v>
+        <v>499997</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6873853533725093</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6517654911325736</v>
+        <v>0.6522133098271856</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7215180082935674</v>
+        <v>0.724902977013732</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>803</v>
@@ -1220,19 +1220,19 @@
         <v>836260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>798589</v>
+        <v>796280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>871118</v>
+        <v>868649</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.629903907178988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6015283242379257</v>
+        <v>0.5997892166446537</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6561597399249237</v>
+        <v>0.6543005358440465</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>275716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251375</v>
+        <v>250547</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303844</v>
+        <v>303626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4322535751002519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.394094313000919</v>
+        <v>0.3927948915839471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4763527072372798</v>
+        <v>0.4760104270083459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>207</v>
@@ -1270,19 +1270,19 @@
         <v>215624</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192081</v>
+        <v>189747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240193</v>
+        <v>239884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3126146466274907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2784819917064326</v>
+        <v>0.275097022986268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3482345088674263</v>
+        <v>0.3477866901728143</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>467</v>
@@ -1291,19 +1291,19 @@
         <v>491340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>456482</v>
+        <v>458951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>529011</v>
+        <v>531320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.370096092821012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3438402600750763</v>
+        <v>0.3456994641559536</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3984716757620743</v>
+        <v>0.4002107833553464</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>312217</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>289482</v>
+        <v>288901</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>334430</v>
+        <v>335545</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6033743816542736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5594393113915164</v>
+        <v>0.558316491853631</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6463029660898693</v>
+        <v>0.6484568419120986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>383</v>
@@ -1416,19 +1416,19 @@
         <v>393471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>373478</v>
+        <v>374994</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>411173</v>
+        <v>413886</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7630695138246631</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7242970999127636</v>
+        <v>0.7272373800958468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7974004484997574</v>
+        <v>0.8026605936119156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>674</v>
@@ -1437,19 +1437,19 @@
         <v>705687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>673249</v>
+        <v>673088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>736045</v>
+        <v>736649</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6830821277440278</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6516830197297904</v>
+        <v>0.6515271865226322</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7124676796128601</v>
+        <v>0.7130521495387373</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>205234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>183021</v>
+        <v>181906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>227969</v>
+        <v>228550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3966256183457263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3536970339101306</v>
+        <v>0.3515431580879015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4405606886084836</v>
+        <v>0.441683508146369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -1487,19 +1487,19 @@
         <v>122171</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104469</v>
+        <v>101756</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>142164</v>
+        <v>140648</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2369304861753369</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2025995515002426</v>
+        <v>0.1973394063880845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2757029000872364</v>
+        <v>0.2727626199041528</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -1508,19 +1508,19 @@
         <v>327406</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>297048</v>
+        <v>296444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>359844</v>
+        <v>360005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3169178722559722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2875323203871399</v>
+        <v>0.2869478504612624</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3483169802702092</v>
+        <v>0.3484728134773677</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>295377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>277894</v>
+        <v>277152</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>310836</v>
+        <v>309818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7654402333078971</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7201332775305715</v>
+        <v>0.718212579310301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8054997247298776</v>
+        <v>0.8028607917214756</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>321</v>
@@ -1633,19 +1633,19 @@
         <v>327056</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>310004</v>
+        <v>310735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342244</v>
+        <v>341344</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8115330302566334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7692219089487247</v>
+        <v>0.7710347623026027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.849219429406286</v>
+        <v>0.8469869388759778</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>617</v>
@@ -1654,19 +1654,19 @@
         <v>622434</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>599360</v>
+        <v>601685</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>643804</v>
+        <v>645778</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7889867160562209</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7597380031119637</v>
+        <v>0.7626856429461331</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8160754428182092</v>
+        <v>0.8185776656098201</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>90515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75056</v>
+        <v>76074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107998</v>
+        <v>108740</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2345597666921028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1945002752701225</v>
+        <v>0.1971392082785246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2798667224694286</v>
+        <v>0.281787420689699</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -1704,19 +1704,19 @@
         <v>75954</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60766</v>
+        <v>61666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93006</v>
+        <v>92275</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1884669697433666</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1507805705937141</v>
+        <v>0.1530130611240223</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2307780910512755</v>
+        <v>0.2289652376973973</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>169</v>
@@ -1725,19 +1725,19 @@
         <v>166469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145099</v>
+        <v>143125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189543</v>
+        <v>187218</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2110132839437791</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1839245571817903</v>
+        <v>0.1814223343901802</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2402619968880358</v>
+        <v>0.2373143570538669</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>248773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>235308</v>
+        <v>235011</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>259992</v>
+        <v>259739</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8502650825446585</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8042452195795701</v>
+        <v>0.8032268197767086</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8886087917539909</v>
+        <v>0.8877453968842219</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>335</v>
@@ -1850,19 +1850,19 @@
         <v>308398</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>294693</v>
+        <v>297219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>316821</v>
+        <v>317462</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9017468229077196</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8616725576555841</v>
+        <v>0.8690591625563456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9263730720863295</v>
+        <v>0.9282496574145808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>594</v>
@@ -1871,19 +1871,19 @@
         <v>557171</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>540270</v>
+        <v>539616</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>573128</v>
+        <v>572615</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8780105212012113</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8513762542850684</v>
+        <v>0.8503458948578287</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9031558759575412</v>
+        <v>0.9023473201589244</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>43810</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32591</v>
+        <v>32844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57275</v>
+        <v>57572</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1497349174553416</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1113912082460091</v>
+        <v>0.1122546031157778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1957547804204298</v>
+        <v>0.1967731802232908</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1921,19 +1921,19 @@
         <v>33603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25180</v>
+        <v>24539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47308</v>
+        <v>44782</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09825317709228046</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07362692791367048</v>
+        <v>0.0717503425854191</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1383274423444158</v>
+        <v>0.1309408374436544</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>79</v>
@@ -1942,19 +1942,19 @@
         <v>77413</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61456</v>
+        <v>61969</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>94314</v>
+        <v>94968</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1219894787987888</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09684412404245898</v>
+        <v>0.09765267984107572</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1486237457149317</v>
+        <v>0.1496541051421712</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>188232</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178105</v>
+        <v>178006</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>195459</v>
+        <v>195523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8968443949385354</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8485907850889145</v>
+        <v>0.848119919871951</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9312738700741138</v>
+        <v>0.9315798429155582</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>274</v>
@@ -2067,19 +2067,19 @@
         <v>315290</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>305334</v>
+        <v>305682</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>323385</v>
+        <v>323348</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9442424501751447</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9144262532299524</v>
+        <v>0.9154691136815601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9684853813609049</v>
+        <v>0.9683735562544437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>472</v>
@@ -2088,19 +2088,19 @@
         <v>503522</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>487476</v>
+        <v>490485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>515080</v>
+        <v>515436</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9259485718923777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8964404748307294</v>
+        <v>0.9019733911536364</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9472017611098716</v>
+        <v>0.9478566710789319</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>21651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14424</v>
+        <v>14360</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31778</v>
+        <v>31877</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1031556050614646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0687261299258862</v>
+        <v>0.06842015708444189</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1514092149110855</v>
+        <v>0.151880080128049</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2138,19 +2138,19 @@
         <v>18618</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10523</v>
+        <v>10560</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28574</v>
+        <v>28226</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05575754982485524</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0315146186390951</v>
+        <v>0.03162644374555629</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08557374677004756</v>
+        <v>0.08453088631844018</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2159,19 +2159,19 @@
         <v>40269</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>28711</v>
+        <v>28355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56315</v>
+        <v>53306</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07405142810762229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05279823889012847</v>
+        <v>0.05214332892106786</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1035595251692708</v>
+        <v>0.09802660884636274</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>2039434</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6242276955569039</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2523</v>
@@ -2284,19 +2284,19 @@
         <v>2584614</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7652925706874355</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4541</v>
@@ -2305,19 +2305,19 @@
         <v>4624048</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6959294833155656</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1227698</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1172170</v>
+        <v>1167046</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1286780</v>
+        <v>1283641</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3757723044430961</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.358776579144296</v>
+        <v>0.3572081923255819</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3938560382382834</v>
+        <v>0.3928954465820785</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>772</v>
@@ -2355,19 +2355,19 @@
         <v>792675</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>745381</v>
+        <v>745918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>840125</v>
+        <v>844471</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2347074293125644</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2207039690593418</v>
+        <v>0.2208629170388339</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2487573524147623</v>
+        <v>0.2500441491553189</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1959</v>
@@ -2376,19 +2376,19 @@
         <v>2020373</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1947322</v>
+        <v>1948109</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2100365</v>
+        <v>2100537</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3040705166844344</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2930762606435692</v>
+        <v>0.2931947642430048</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3161096059390808</v>
+        <v>0.316135435222692</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>299333</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>279150</v>
+        <v>280716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>319781</v>
+        <v>319038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.660625404947085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6160828946008563</v>
+        <v>0.6195394184139199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7057557968700578</v>
+        <v>0.7041143679939826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>324</v>
@@ -2744,19 +2744,19 @@
         <v>332089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>311913</v>
+        <v>313580</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>347191</v>
+        <v>348173</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7737907730096348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7267788091456653</v>
+        <v>0.7306623264902524</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8089775202499918</v>
+        <v>0.811266897074566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>617</v>
@@ -2765,19 +2765,19 @@
         <v>631422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>603511</v>
+        <v>603820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>657331</v>
+        <v>658342</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7156731501200466</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6840384511840246</v>
+        <v>0.6843883549569699</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7450393708021152</v>
+        <v>0.7461851497045519</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>153772</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>133324</v>
+        <v>134067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173955</v>
+        <v>172389</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.339374595052915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.294244203129942</v>
+        <v>0.2958856320060172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3839171053991438</v>
+        <v>0.38046058158608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -2815,19 +2815,19 @@
         <v>97083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81981</v>
+        <v>80999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117259</v>
+        <v>115592</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2262092269903651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1910224797500088</v>
+        <v>0.1887331029254342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2732211908543348</v>
+        <v>0.2693376735097482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>248</v>
@@ -2836,19 +2836,19 @@
         <v>250855</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224946</v>
+        <v>223935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278766</v>
+        <v>278457</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2843268498799534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2549606291978846</v>
+        <v>0.2538148502954484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3159615488159753</v>
+        <v>0.3156116450430304</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>451309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>425640</v>
+        <v>426049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>476586</v>
+        <v>475636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6568445037424979</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6194846028747051</v>
+        <v>0.6200801724287458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6936321463942463</v>
+        <v>0.6922502845165311</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>443</v>
@@ -2961,19 +2961,19 @@
         <v>474231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>451093</v>
+        <v>452007</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>491942</v>
+        <v>494656</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.778342345151082</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7403669413566795</v>
+        <v>0.7418666856323767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8074108576702738</v>
+        <v>0.8118663150060735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>879</v>
@@ -2982,19 +2982,19 @@
         <v>925540</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>893321</v>
+        <v>895333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>958768</v>
+        <v>959544</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7139474762222626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6890941839677612</v>
+        <v>0.6906459379762709</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7395789228466996</v>
+        <v>0.7401772911074805</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>235778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>210501</v>
+        <v>211451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>261447</v>
+        <v>261038</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3431554962575021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3063678536057537</v>
+        <v>0.3077497154834688</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3805153971252949</v>
+        <v>0.3799198275712541</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>127</v>
@@ -3032,19 +3032,19 @@
         <v>135052</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>117341</v>
+        <v>114627</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>158190</v>
+        <v>157276</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2216576548489179</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1925891423297262</v>
+        <v>0.1881336849939265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2596330586433204</v>
+        <v>0.2581333143676233</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>358</v>
@@ -3053,19 +3053,19 @@
         <v>370830</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>337602</v>
+        <v>336826</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>403049</v>
+        <v>401037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2860525237777374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2604210771533004</v>
+        <v>0.2598227088925195</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3109058160322388</v>
+        <v>0.3093540620237292</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>435735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>406872</v>
+        <v>409155</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>458867</v>
+        <v>461285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6390363937555489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5967060292692112</v>
+        <v>0.600053881667568</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6729599891675151</v>
+        <v>0.6765065508563018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>512</v>
@@ -3178,19 +3178,19 @@
         <v>543834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>520710</v>
+        <v>519276</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>566428</v>
+        <v>567139</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7650475443105769</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7325179769594246</v>
+        <v>0.7304995209282926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7968317135107825</v>
+        <v>0.7978316732637458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>922</v>
@@ -3199,19 +3199,19 @@
         <v>979569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>943531</v>
+        <v>946396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1012053</v>
+        <v>1017886</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7033533255685065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6774771848393818</v>
+        <v>0.6795349336116144</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7266780810998977</v>
+        <v>0.7308661536544603</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>246128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>222996</v>
+        <v>220578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>274991</v>
+        <v>272708</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3609636062444511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3270400108324849</v>
+        <v>0.3234934491436982</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4032939707307889</v>
+        <v>0.399946118332432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -3249,19 +3249,19 @@
         <v>167016</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>144422</v>
+        <v>143711</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190140</v>
+        <v>191574</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2349524556894231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2031682864892182</v>
+        <v>0.2021683267362544</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2674820230405755</v>
+        <v>0.2695004790717074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>396</v>
@@ -3270,19 +3270,19 @@
         <v>413143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>380659</v>
+        <v>374826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>449181</v>
+        <v>446316</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2966466744314936</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2733219189001022</v>
+        <v>0.2691338463455397</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3225228151606181</v>
+        <v>0.3204650663883855</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>407779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>382485</v>
+        <v>381142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>432891</v>
+        <v>430736</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6634682397915562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.622314449861455</v>
+        <v>0.6201293470510716</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7043262390680768</v>
+        <v>0.7008202999018998</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>428</v>
@@ -3395,19 +3395,19 @@
         <v>485191</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>464590</v>
+        <v>462264</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>507801</v>
+        <v>505394</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7888659914671863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7553700438031425</v>
+        <v>0.7515893980001987</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8256263963019873</v>
+        <v>0.8217126143483768</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>794</v>
@@ -3416,19 +3416,19 @@
         <v>892970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>856811</v>
+        <v>855810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>924212</v>
+        <v>924222</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7261891757079822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.696783457148106</v>
+        <v>0.6959693698035073</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7515959244201795</v>
+        <v>0.7516041387266688</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>206838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181726</v>
+        <v>183881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>232132</v>
+        <v>233475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3365317602084438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.295673760931923</v>
+        <v>0.2991797000981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3776855501385449</v>
+        <v>0.3798706529489284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -3466,19 +3466,19 @@
         <v>129858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107248</v>
+        <v>109655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150459</v>
+        <v>152785</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2111340085328138</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1743736036980127</v>
+        <v>0.1782873856516231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2446299561968575</v>
+        <v>0.2484106019998012</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>292</v>
@@ -3487,19 +3487,19 @@
         <v>336696</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>305454</v>
+        <v>305444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>372855</v>
+        <v>373856</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2738108242920177</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2484040755798206</v>
+        <v>0.2483958612733314</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3032165428518941</v>
+        <v>0.3040306301964932</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>329557</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>310581</v>
+        <v>308424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347446</v>
+        <v>347177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7693270566522686</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7250289133404956</v>
+        <v>0.7199942051994653</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8110875971058767</v>
+        <v>0.8104605718439536</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>368</v>
@@ -3612,19 +3612,19 @@
         <v>403704</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387537</v>
+        <v>387929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>415577</v>
+        <v>414445</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9015273394652812</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8654238435231179</v>
+        <v>0.8663007009047142</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9280404961573967</v>
+        <v>0.9255141686849376</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>674</v>
@@ -3633,19 +3633,19 @@
         <v>733261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>710022</v>
+        <v>708805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>755119</v>
+        <v>754934</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8368930653411503</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8103696189071155</v>
+        <v>0.8089813697349183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8618411508424965</v>
+        <v>0.8616296881825118</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>98813</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>80924</v>
+        <v>81193</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117789</v>
+        <v>119946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2306729433477314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1889124028941233</v>
+        <v>0.1895394281560465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2749710866595044</v>
+        <v>0.2800057948005347</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -3683,19 +3683,19 @@
         <v>44096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32223</v>
+        <v>33355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60263</v>
+        <v>59871</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09847266053471884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07195950384260325</v>
+        <v>0.07448583131506242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1345761564768822</v>
+        <v>0.1336992990952859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>124</v>
@@ -3704,19 +3704,19 @@
         <v>142909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121051</v>
+        <v>121236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166148</v>
+        <v>167365</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1631069346588497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1381588491575037</v>
+        <v>0.1383703118174882</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1896303810928847</v>
+        <v>0.1910186302650818</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>276706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>263004</v>
+        <v>263884</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>286177</v>
+        <v>286724</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.893215022652438</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8489852006643591</v>
+        <v>0.8518269420774689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9237901872930241</v>
+        <v>0.9255544914471346</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>317</v>
@@ -3829,19 +3829,19 @@
         <v>324519</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>312686</v>
+        <v>313177</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>334337</v>
+        <v>333974</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9167294867323545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8833030002267592</v>
+        <v>0.8846907934913917</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9444648341468914</v>
+        <v>0.9434412680964466</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>568</v>
@@ -3850,19 +3850,19 @@
         <v>601224</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>583927</v>
+        <v>584388</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>616600</v>
+        <v>615760</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.905755320431365</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8796963682024259</v>
+        <v>0.8803909399246101</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9289196203540085</v>
+        <v>0.9276533299052374</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>33080</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23609</v>
+        <v>23062</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46782</v>
+        <v>45902</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.106784977347562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07620981270697588</v>
+        <v>0.07444550855286541</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1510147993356409</v>
+        <v>0.1481730579225314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -3900,19 +3900,19 @@
         <v>29477</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19659</v>
+        <v>20022</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41310</v>
+        <v>40819</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08327051326764548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05553516585310861</v>
+        <v>0.05655873190355344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1166969997732409</v>
+        <v>0.1153092065086084</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -3921,19 +3921,19 @@
         <v>62558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>47182</v>
+        <v>48022</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>79855</v>
+        <v>79394</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09424467956863498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07108037964599138</v>
+        <v>0.07234667009476271</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1203036317975742</v>
+        <v>0.11960906007539</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>233043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>222392</v>
+        <v>223585</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>239440</v>
+        <v>240446</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9327287957967557</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8901000672120755</v>
+        <v>0.8948742858597344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9583315806318176</v>
+        <v>0.9623575551792179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>323</v>
@@ -4046,19 +4046,19 @@
         <v>358190</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>345910</v>
+        <v>345452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>368100</v>
+        <v>368232</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9208474612077521</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8892756988360108</v>
+        <v>0.8881004257320044</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9463244142868196</v>
+        <v>0.9466639466959701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>529</v>
@@ -4067,19 +4067,19 @@
         <v>591234</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>574889</v>
+        <v>575166</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>602365</v>
+        <v>603766</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9254943348347225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8999094921488148</v>
+        <v>0.9003424382927669</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9429188698915175</v>
+        <v>0.9451119743067444</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>16808</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10411</v>
+        <v>9405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27459</v>
+        <v>26266</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06727120420324424</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04166841936818255</v>
+        <v>0.03764244482078218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1098999327879247</v>
+        <v>0.1051257141402659</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -4117,19 +4117,19 @@
         <v>30789</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20879</v>
+        <v>20747</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43069</v>
+        <v>43527</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07915253879224791</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05367558571318042</v>
+        <v>0.05333605330403001</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1107243011639892</v>
+        <v>0.1118995742679959</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -4138,19 +4138,19 @@
         <v>47596</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>36465</v>
+        <v>35064</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>63941</v>
+        <v>63664</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07450566516527746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05708113010848247</v>
+        <v>0.05488802569325542</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1000905078511854</v>
+        <v>0.09965756170723283</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>2433461</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2378512</v>
+        <v>2377956</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2489437</v>
+        <v>2485272</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7105663019813385</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6945214692876374</v>
+        <v>0.6943590784963801</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7269112551938095</v>
+        <v>0.7256949718838004</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2715</v>
@@ -4263,19 +4263,19 @@
         <v>2921758</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2871138</v>
+        <v>2869315</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2970819</v>
+        <v>2965915</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8218431012966406</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8076043635527712</v>
+        <v>0.8070916908929641</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8356432116062803</v>
+        <v>0.8342635721708344</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4983</v>
@@ -4284,19 +4284,19 @@
         <v>5355219</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5278900</v>
+        <v>5280112</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5423511</v>
+        <v>5424950</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7672445647824615</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.756310306473623</v>
+        <v>0.7564840052047532</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7770287606178909</v>
+        <v>0.777234981392992</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>991217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>935241</v>
+        <v>939406</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1046166</v>
+        <v>1046722</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2894336980186615</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2730887448061906</v>
+        <v>0.2743050281161997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.305478530712363</v>
+        <v>0.3056409215036199</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>580</v>
@@ -4334,19 +4334,19 @@
         <v>633371</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>584310</v>
+        <v>589214</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>683991</v>
+        <v>685814</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1781568987033594</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1643567883937198</v>
+        <v>0.1657364278291657</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1923956364472288</v>
+        <v>0.192908309107036</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1519</v>
@@ -4355,19 +4355,19 @@
         <v>1624588</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1556296</v>
+        <v>1554857</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1700907</v>
+        <v>1699695</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2327554352175384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.222971239382109</v>
+        <v>0.222765018607008</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2436896935263771</v>
+        <v>0.2435159947952464</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>307400</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>288663</v>
+        <v>289296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>326537</v>
+        <v>325489</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7385304155950788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.693514273278421</v>
+        <v>0.6950349449487802</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7845083322853574</v>
+        <v>0.781990559528138</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>319</v>
@@ -4723,19 +4723,19 @@
         <v>311495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>295291</v>
+        <v>296019</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>326792</v>
+        <v>327072</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.78708975145903</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7461447885528665</v>
+        <v>0.7479863649700927</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.82574264573495</v>
+        <v>0.8264506097959039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>607</v>
@@ -4744,19 +4744,19 @@
         <v>618895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>593926</v>
+        <v>593620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>641279</v>
+        <v>641034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7621977838612609</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7314479267882144</v>
+        <v>0.7310706080482712</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7897652800331646</v>
+        <v>0.7894629560575283</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>108832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89695</v>
+        <v>90743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127569</v>
+        <v>126936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2614695844049212</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2154916677146427</v>
+        <v>0.218009440471862</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3064857267215797</v>
+        <v>0.3049650550512198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -4794,19 +4794,19 @@
         <v>84260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68963</v>
+        <v>68683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100464</v>
+        <v>99736</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.21291024854097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1742573542650501</v>
+        <v>0.1735493902040964</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2538552114471336</v>
+        <v>0.2520136350299073</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>187</v>
@@ -4815,19 +4815,19 @@
         <v>193092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170708</v>
+        <v>170953</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>218061</v>
+        <v>218367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2378022161387391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2102347199668354</v>
+        <v>0.2105370439424718</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2685520732117856</v>
+        <v>0.2689293919517292</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>387402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>364278</v>
+        <v>363882</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411717</v>
+        <v>409365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6572258142262453</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6179956541835083</v>
+        <v>0.6173253174248691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6984763461860413</v>
+        <v>0.6944858517114441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>443</v>
@@ -4940,19 +4940,19 @@
         <v>431251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>411206</v>
+        <v>411901</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>450316</v>
+        <v>450392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7691759409649181</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7334250051512478</v>
+        <v>0.7346644882544274</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8031805571399917</v>
+        <v>0.8033160886446199</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>815</v>
@@ -4961,19 +4961,19 @@
         <v>818653</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>788904</v>
+        <v>786356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>847936</v>
+        <v>848253</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7118000189062698</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6859341203837137</v>
+        <v>0.6837186987731291</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7372608910725327</v>
+        <v>0.7375365816441878</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>202048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>177733</v>
+        <v>180085</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>225172</v>
+        <v>225568</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3427741857737547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3015236538139586</v>
+        <v>0.3055141482885559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3820043458164916</v>
+        <v>0.382674682575131</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -5011,19 +5011,19 @@
         <v>129415</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110350</v>
+        <v>110274</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149460</v>
+        <v>148765</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2308240590350818</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1968194428600082</v>
+        <v>0.1966839113553802</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2665749948487522</v>
+        <v>0.2653355117455726</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>327</v>
@@ -5032,19 +5032,19 @@
         <v>331463</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>302180</v>
+        <v>301863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>361212</v>
+        <v>363760</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2881999810937302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2627391089274674</v>
+        <v>0.2624634183558122</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3140658796162863</v>
+        <v>0.3162813012268709</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>455616</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>431749</v>
+        <v>431969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>480469</v>
+        <v>483083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6809416845067037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6452718591993091</v>
+        <v>0.6456000113093509</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7180857316034032</v>
+        <v>0.7219922925150939</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>481</v>
@@ -5157,19 +5157,19 @@
         <v>480973</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>457736</v>
+        <v>455309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>502571</v>
+        <v>499603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.732776740453794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6973740567707876</v>
+        <v>0.6936756450478553</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7656808150879506</v>
+        <v>0.7611600467908731</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>913</v>
@@ -5178,19 +5178,19 @@
         <v>936589</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>905133</v>
+        <v>901009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>973064</v>
+        <v>969773</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7066103747721385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.682878465635032</v>
+        <v>0.6797674080039406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7341292466372608</v>
+        <v>0.7316463099368575</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>213481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188628</v>
+        <v>186014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237348</v>
+        <v>237128</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3190583154932963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.281914268396597</v>
+        <v>0.2780077074849059</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3547281408006909</v>
+        <v>0.3543999886906491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>179</v>
@@ -5228,19 +5228,19 @@
         <v>175398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153800</v>
+        <v>156768</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198635</v>
+        <v>201062</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.267223259546206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2343191849120494</v>
+        <v>0.2388399532091268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3026259432292124</v>
+        <v>0.3063243549521438</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>385</v>
@@ -5249,19 +5249,19 @@
         <v>388878</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352403</v>
+        <v>355694</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>420334</v>
+        <v>424458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2933896252278616</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2658707533627392</v>
+        <v>0.2683536900631425</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.317121534364968</v>
+        <v>0.3202325919960594</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>471501</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>446720</v>
+        <v>447265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>493262</v>
+        <v>495305</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7298233615461039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6914664232355208</v>
+        <v>0.6923091186181111</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7635063382490823</v>
+        <v>0.7666693419373961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>474</v>
@@ -5374,19 +5374,19 @@
         <v>512028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>490493</v>
+        <v>491576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>532378</v>
+        <v>532104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7926662800862163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7593272885179644</v>
+        <v>0.7610049710592236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8241696601065813</v>
+        <v>0.8237446335077685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>902</v>
@@ -5395,19 +5395,19 @@
         <v>983529</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>949510</v>
+        <v>950568</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1013087</v>
+        <v>1014084</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7612426018981292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7349118492727896</v>
+        <v>0.7357307669112519</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.784120316848007</v>
+        <v>0.7848918878904528</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>174547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152786</v>
+        <v>150743</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199328</v>
+        <v>198783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.270176638453896</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2364936617509177</v>
+        <v>0.2333306580626039</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3085335767644792</v>
+        <v>0.307690881381889</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -5445,19 +5445,19 @@
         <v>133929</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113579</v>
+        <v>113853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>155464</v>
+        <v>154381</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2073337199137837</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1758303398934187</v>
+        <v>0.1762553664922316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2406727114820356</v>
+        <v>0.2389950289407766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>279</v>
@@ -5466,19 +5466,19 @@
         <v>308476</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>278918</v>
+        <v>277921</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>342495</v>
+        <v>341437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2387573981018708</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2158796831519929</v>
+        <v>0.2151081121095471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2650881507272103</v>
+        <v>0.2642692330887481</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>365121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>344490</v>
+        <v>343760</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>382614</v>
+        <v>384488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7695756896284476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.726090351140196</v>
+        <v>0.7245527757353442</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8064450404825929</v>
+        <v>0.8103955522494433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>377</v>
@@ -5591,19 +5591,19 @@
         <v>429734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>412938</v>
+        <v>412123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>445569</v>
+        <v>445979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8668676670584805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8329860234333347</v>
+        <v>0.8313429011016257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.898809441383436</v>
+        <v>0.8996367839677403</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>704</v>
@@ -5612,19 +5612,19 @@
         <v>794855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>769315</v>
+        <v>768328</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>821489</v>
+        <v>818835</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8192890417623168</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7929633392495623</v>
+        <v>0.7919465612740723</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.84674136965086</v>
+        <v>0.8440059619012553</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>109324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91831</v>
+        <v>89957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>129955</v>
+        <v>130685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2304243103715524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1935549595174069</v>
+        <v>0.1896044477505568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2739096488598038</v>
+        <v>0.2754472242646558</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -5662,19 +5662,19 @@
         <v>65998</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50163</v>
+        <v>49753</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82794</v>
+        <v>83609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1331323329415195</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1011905586165641</v>
+        <v>0.1003632160322597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1670139765666653</v>
+        <v>0.1686570988983742</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -5683,19 +5683,19 @@
         <v>175322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148688</v>
+        <v>151342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>200862</v>
+        <v>201849</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1807109582376832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.15325863034914</v>
+        <v>0.1559940380987448</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2070366607504378</v>
+        <v>0.2080534387259278</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>290275</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>276970</v>
+        <v>277994</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>302494</v>
+        <v>302176</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8710327468378141</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8311070515636632</v>
+        <v>0.834179773656449</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9076966948687951</v>
+        <v>0.9067424517440207</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>317</v>
@@ -5808,19 +5808,19 @@
         <v>336734</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>323584</v>
+        <v>323159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>347276</v>
+        <v>347224</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8936848609032745</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.858784137295543</v>
+        <v>0.8576569266718548</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9216632671803685</v>
+        <v>0.9215233367974633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>600</v>
@@ -5829,19 +5829,19 @@
         <v>627009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>609272</v>
+        <v>607700</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>643292</v>
+        <v>642674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8830533033645658</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8580722031014184</v>
+        <v>0.8558583213446574</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9059848560559589</v>
+        <v>0.905114507342938</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>42979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30760</v>
+        <v>31078</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56284</v>
+        <v>55260</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1289672531621859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09230330513120535</v>
+        <v>0.09325754825598005</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.168892948436337</v>
+        <v>0.1658202263435513</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -5879,19 +5879,19 @@
         <v>40059</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29517</v>
+        <v>29569</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53209</v>
+        <v>53634</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1063151390967255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07833673281963145</v>
+        <v>0.07847666320253685</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.141215862704457</v>
+        <v>0.1423430733281452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>77</v>
@@ -5900,19 +5900,19 @@
         <v>83038</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66755</v>
+        <v>67373</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>100775</v>
+        <v>102347</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1169466966354342</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09401514394404104</v>
+        <v>0.09488549265706211</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1419277968985816</v>
+        <v>0.1441416786553426</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>236037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>226782</v>
+        <v>227218</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243395</v>
+        <v>242564</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9184401445324971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8824261748276975</v>
+        <v>0.8841223904876897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9470689850047993</v>
+        <v>0.943835927088018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>281</v>
@@ -6025,19 +6025,19 @@
         <v>373474</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>359109</v>
+        <v>359151</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382822</v>
+        <v>382552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.933290156527638</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8973945249463537</v>
+        <v>0.897498198678091</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9566501931521683</v>
+        <v>0.9559767626443719</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>558</v>
@@ -6046,19 +6046,19 @@
         <v>609511</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>595051</v>
+        <v>594929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>621634</v>
+        <v>621705</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9274827690665145</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9054788473998978</v>
+        <v>0.9052929785378311</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9459300975773411</v>
+        <v>0.9460378612445085</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>20961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13603</v>
+        <v>14434</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30216</v>
+        <v>29780</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08155985546750294</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05293101499520113</v>
+        <v>0.05616407291198217</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1175738251723028</v>
+        <v>0.1158776095123105</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -6096,19 +6096,19 @@
         <v>26695</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17347</v>
+        <v>17617</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>41060</v>
+        <v>41018</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.066709843472362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04334980684783171</v>
+        <v>0.04402323735562773</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1026054750536453</v>
+        <v>0.1025018013219088</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>45</v>
@@ -6117,19 +6117,19 @@
         <v>47656</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35533</v>
+        <v>35462</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62116</v>
+        <v>62238</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07251723093348554</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05406990242265878</v>
+        <v>0.05396213875549145</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09452115260010187</v>
+        <v>0.09470702146216874</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>2513353</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2459530</v>
+        <v>2456560</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2564680</v>
+        <v>2561486</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.742382130370966</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7264844021489205</v>
+        <v>0.7256070227215125</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7575429209626804</v>
+        <v>0.7565996703382448</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2692</v>
@@ -6242,19 +6242,19 @@
         <v>2875689</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2820278</v>
+        <v>2828469</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2917503</v>
+        <v>2922188</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8143099857757806</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.798619190484875</v>
+        <v>0.8009387156837005</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8261502981281649</v>
+        <v>0.8274769917196019</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5099</v>
@@ -6263,19 +6263,19 @@
         <v>5389042</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5321439</v>
+        <v>5316803</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5457544</v>
+        <v>5459842</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7791047487428887</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7693312958272205</v>
+        <v>0.7686610544541309</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7890082952081113</v>
+        <v>0.7893404346907288</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>872171</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>820844</v>
+        <v>824038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>925994</v>
+        <v>928964</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.257617869629034</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2424570790373195</v>
+        <v>0.2434003296617553</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2735155978510794</v>
+        <v>0.2743929772784876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>633</v>
@@ -6313,19 +6313,19 @@
         <v>655754</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>613940</v>
+        <v>609255</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>711165</v>
+        <v>702974</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1856900142242194</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.173849701871835</v>
+        <v>0.1725230082803981</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2013808095151249</v>
+        <v>0.1990612843162996</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1449</v>
@@ -6334,19 +6334,19 @@
         <v>1527925</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1459423</v>
+        <v>1457125</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1595528</v>
+        <v>1600164</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2208952512571112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2109917047918886</v>
+        <v>0.2106595653092711</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2306687041727795</v>
+        <v>0.2313389455458691</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>204785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170627</v>
+        <v>175969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>235004</v>
+        <v>241109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5021785291971615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4184145486902304</v>
+        <v>0.431515990514088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5762823705064657</v>
+        <v>0.5912523340233096</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -6702,19 +6702,19 @@
         <v>260725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>234058</v>
+        <v>234836</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>282682</v>
+        <v>282483</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.719218527975482</v>
+        <v>0.7192185279754821</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6456557836647042</v>
+        <v>0.64780289880582</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7797877028868188</v>
+        <v>0.7792373350277128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>234</v>
@@ -6723,19 +6723,19 @@
         <v>465510</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>423339</v>
+        <v>424914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>505311</v>
+        <v>506962</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6043193627121723</v>
+        <v>0.6043193627121722</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5495736052847434</v>
+        <v>0.551617874611267</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6559876352396884</v>
+        <v>0.6581314177712213</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>203008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172789</v>
+        <v>166684</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>237166</v>
+        <v>231824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4978214708028386</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4237176294935345</v>
+        <v>0.4087476659766904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5815854513097697</v>
+        <v>0.5684840094859116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -6773,19 +6773,19 @@
         <v>101787</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79830</v>
+        <v>80029</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128454</v>
+        <v>127676</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2807814720245178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2202122971131812</v>
+        <v>0.220762664972287</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3543442163352957</v>
+        <v>0.35219710119418</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>145</v>
@@ -6794,19 +6794,19 @@
         <v>304795</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>264994</v>
+        <v>263343</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>346966</v>
+        <v>345391</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3956806372878277</v>
+        <v>0.3956806372878278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3440123647603116</v>
+        <v>0.3418685822287789</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4504263947152566</v>
+        <v>0.4483821253887331</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>271125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>240415</v>
+        <v>242658</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>298095</v>
+        <v>298206</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.568526487612688</v>
+        <v>0.5685264876126881</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5041311936978613</v>
+        <v>0.5088345665019387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6250805251085578</v>
+        <v>0.6253148838145302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>316</v>
@@ -6919,19 +6919,19 @@
         <v>343004</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>318445</v>
+        <v>320502</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>362477</v>
+        <v>366176</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.686881012981296</v>
+        <v>0.6868810129812959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6377012096404879</v>
+        <v>0.6418194806443761</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7258781479876231</v>
+        <v>0.7332842639876728</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>487</v>
@@ -6940,19 +6940,19 @@
         <v>614128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>579296</v>
+        <v>579624</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>651234</v>
+        <v>648618</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6290660110478913</v>
+        <v>0.6290660110478914</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5933869058620563</v>
+        <v>0.5937225825104657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.667074700687258</v>
+        <v>0.6643942881902047</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>205765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178795</v>
+        <v>178684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>236475</v>
+        <v>234232</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4314735123873119</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3749194748914422</v>
+        <v>0.3746851161854697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4958688063021387</v>
+        <v>0.4911654334980613</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>143</v>
@@ -6990,19 +6990,19 @@
         <v>156360</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136887</v>
+        <v>133188</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180919</v>
+        <v>178862</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3131189870187042</v>
+        <v>0.3131189870187041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.274121852012377</v>
+        <v>0.2667157360123272</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3622987903595118</v>
+        <v>0.3581805193556239</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>274</v>
@@ -7011,19 +7011,19 @@
         <v>362126</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>325020</v>
+        <v>327636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>396958</v>
+        <v>396630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3709339889521087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3329252993127419</v>
+        <v>0.3356057118097951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4066130941379434</v>
+        <v>0.4062774174895342</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>372409</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>346758</v>
+        <v>345803</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>398741</v>
+        <v>398228</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6039949690132106</v>
+        <v>0.6039949690132107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5623921442477468</v>
+        <v>0.5608425334136811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6467003526753481</v>
+        <v>0.6458698040473899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>595</v>
@@ -7136,19 +7136,19 @@
         <v>438779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>419868</v>
+        <v>419326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>456386</v>
+        <v>457757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7069710843958837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6765002462940685</v>
+        <v>0.6756266173195979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7353396737753998</v>
+        <v>0.7375488692469223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>927</v>
@@ -7157,19 +7157,19 @@
         <v>811189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>777542</v>
+        <v>775871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>843918</v>
+        <v>841559</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6556523958539029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6284567438204445</v>
+        <v>0.6271059338824779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6821060688755857</v>
+        <v>0.6801990501605958</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>244168</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>217836</v>
+        <v>218349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>269819</v>
+        <v>270774</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3960050309867894</v>
+        <v>0.3960050309867895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3532996473246519</v>
+        <v>0.3541301959526099</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4376078557522534</v>
+        <v>0.4391574665863189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -7207,19 +7207,19 @@
         <v>181868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164261</v>
+        <v>162890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200779</v>
+        <v>201321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2930289156041163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2646603262246001</v>
+        <v>0.2624511307530775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3234997537059315</v>
+        <v>0.3243733826804019</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -7228,19 +7228,19 @@
         <v>426035</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>393306</v>
+        <v>395665</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>459682</v>
+        <v>461353</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3443476041460971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3178939311244142</v>
+        <v>0.3198009498394042</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3715432561795556</v>
+        <v>0.3728940661175218</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>472845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>448605</v>
+        <v>446359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>497944</v>
+        <v>496255</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6782323988734307</v>
+        <v>0.6782323988734306</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6434637230575593</v>
+        <v>0.6402427147476216</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.714234583511158</v>
+        <v>0.7118114505475692</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>836</v>
@@ -7353,19 +7353,19 @@
         <v>543213</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>523125</v>
+        <v>522397</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>563116</v>
+        <v>562477</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.73974925502582</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7123936543212043</v>
+        <v>0.7114023640832917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7668531082906256</v>
+        <v>0.7659828844362324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1278</v>
@@ -7374,19 +7374,19 @@
         <v>1016058</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>983093</v>
+        <v>985078</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1046766</v>
+        <v>1048034</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.709789018936356</v>
+        <v>0.7097890189363562</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6867605378053645</v>
+        <v>0.6881472885180594</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7312409978652336</v>
+        <v>0.7321266226847596</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>224327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199228</v>
+        <v>200917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248567</v>
+        <v>250813</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3217676011265694</v>
+        <v>0.3217676011265693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2857654164888421</v>
+        <v>0.2881885494524307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3565362769424409</v>
+        <v>0.3597572852523786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>301</v>
@@ -7424,19 +7424,19 @@
         <v>191107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171204</v>
+        <v>171843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>211195</v>
+        <v>211923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.26025074497418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2331468917093744</v>
+        <v>0.2340171155637676</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2876063456787958</v>
+        <v>0.2885976359167075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -7445,19 +7445,19 @@
         <v>415435</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>384727</v>
+        <v>383459</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>448400</v>
+        <v>446415</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2902109810636439</v>
+        <v>0.290210981063644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2687590021347659</v>
+        <v>0.2678733773152401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3132394621946353</v>
+        <v>0.3118527114819404</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>468496</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>446705</v>
+        <v>446161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>488775</v>
+        <v>485841</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7726257468494582</v>
+        <v>0.7726257468494584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.736689971762122</v>
+        <v>0.7357926819710773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8060692077001502</v>
+        <v>0.8012318643261053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>794</v>
@@ -7570,19 +7570,19 @@
         <v>490364</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>474655</v>
+        <v>475377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>503240</v>
+        <v>503785</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.809522978299033</v>
+        <v>0.8095229782990329</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7835881420416517</v>
+        <v>0.7847808990644776</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8307793006357392</v>
+        <v>0.8316776897068162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1308</v>
@@ -7591,19 +7591,19 @@
         <v>958860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>934344</v>
+        <v>931540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>983032</v>
+        <v>981918</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7910648800123742</v>
+        <v>0.7910648800123744</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7708392621854941</v>
+        <v>0.7685258984621849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8110066938725959</v>
+        <v>0.8100880638100104</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>137872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117593</v>
+        <v>120527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>159663</v>
+        <v>160207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2273742531505417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1939307922998499</v>
+        <v>0.1987681356738946</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2633100282378779</v>
+        <v>0.2642073180289229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -7641,19 +7641,19 @@
         <v>115381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102505</v>
+        <v>101960</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131090</v>
+        <v>130368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1904770217009671</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1692206993642608</v>
+        <v>0.1683223102931838</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2164118579583484</v>
+        <v>0.2152191009355223</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>349</v>
@@ -7662,19 +7662,19 @@
         <v>253253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>229081</v>
+        <v>230195</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>277769</v>
+        <v>280573</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2089351199876256</v>
+        <v>0.2089351199876257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1889933061274041</v>
+        <v>0.1899119361899898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2291607378145057</v>
+        <v>0.231474101537815</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>321290</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>305543</v>
+        <v>305253</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>334850</v>
+        <v>334406</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.789256394450241</v>
+        <v>0.7892563944502409</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7505726723797096</v>
+        <v>0.7498593828734389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8225654652940286</v>
+        <v>0.8214757372091053</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>708</v>
@@ -7787,19 +7787,19 @@
         <v>380605</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>371357</v>
+        <v>368900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>390653</v>
+        <v>389304</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8692336249980142</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8481126066355781</v>
+        <v>0.8425005497979082</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8921806864113918</v>
+        <v>0.8890988758523426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1162</v>
@@ -7808,19 +7808,19 @@
         <v>701896</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>683085</v>
+        <v>684497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>717887</v>
+        <v>718205</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8307019078202257</v>
+        <v>0.8307019078202258</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8084390980021722</v>
+        <v>0.8101103016083137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8496278458415298</v>
+        <v>0.8500042207511358</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>85790</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72230</v>
+        <v>72674</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101537</v>
+        <v>101827</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.210743605549759</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1774345347059714</v>
+        <v>0.1785242627908951</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2494273276202903</v>
+        <v>0.2501406171265613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>117</v>
@@ -7858,19 +7858,19 @@
         <v>57258</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47210</v>
+        <v>48559</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>66506</v>
+        <v>68963</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1307663750019858</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1078193135886082</v>
+        <v>0.1109011241476574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1518873933644221</v>
+        <v>0.1574994502020918</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>233</v>
@@ -7879,19 +7879,19 @@
         <v>143047</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127056</v>
+        <v>126738</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161858</v>
+        <v>160446</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1692980921797743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1503721541584702</v>
+        <v>0.1499957792488642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.191560901997828</v>
+        <v>0.1898896983916867</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>273056</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>262353</v>
+        <v>261836</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>282552</v>
+        <v>281724</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8829697474289031</v>
+        <v>0.8829697474289029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.848359797604922</v>
+        <v>0.8466883649173683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9136779471298735</v>
+        <v>0.91100079094342</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>764</v>
@@ -8004,19 +8004,19 @@
         <v>405494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>394747</v>
+        <v>393686</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>415374</v>
+        <v>415053</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8727640648855624</v>
+        <v>0.8727640648855622</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8496336468491191</v>
+        <v>0.8473481710690007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.894028284905321</v>
+        <v>0.8933372875810702</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1172</v>
@@ -8025,19 +8025,19 @@
         <v>678550</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>662592</v>
+        <v>662729</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>691608</v>
+        <v>691565</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.876842441585002</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8562210123899331</v>
+        <v>0.8563980450053502</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8937171292259378</v>
+        <v>0.8936617317951728</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>36191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26695</v>
+        <v>27523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46894</v>
+        <v>47411</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1170302525710969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08632205287012706</v>
+        <v>0.08899920905658007</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1516402023950783</v>
+        <v>0.1533116350826318</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -8075,19 +8075,19 @@
         <v>59115</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>49235</v>
+        <v>49556</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>69862</v>
+        <v>70923</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1272359351144377</v>
+        <v>0.1272359351144376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1059717150946789</v>
+        <v>0.1066627124189297</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1503663531508808</v>
+        <v>0.1526518289309992</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>166</v>
@@ -8096,19 +8096,19 @@
         <v>95306</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82248</v>
+        <v>82291</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>111264</v>
+        <v>111127</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.123157558414998</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1062828707740621</v>
+        <v>0.106338268204827</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1437789876100667</v>
+        <v>0.1436019549946496</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>2384006</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2319862</v>
+        <v>2315205</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2446000</v>
+        <v>2443762</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6770574223006476</v>
+        <v>0.6770574223006478</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6588406325784772</v>
+        <v>0.6575178581577757</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6946638728315823</v>
+        <v>0.6940281275918756</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4162</v>
@@ -8221,19 +8221,19 @@
         <v>2862185</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2812791</v>
+        <v>2814670</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2905269</v>
+        <v>2906589</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.7683594315325832</v>
+        <v>0.7683594315325835</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7550995737333459</v>
+        <v>0.7556038702678599</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7799253216194872</v>
+        <v>0.7802798375227298</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6568</v>
@@ -8242,19 +8242,19 @@
         <v>5246191</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5169389</v>
+        <v>5161962</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5324736</v>
+        <v>5322271</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7239932021773502</v>
+        <v>0.7239932021773501</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7133943232493778</v>
+        <v>0.7123693661084728</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7348326709550341</v>
+        <v>0.7344924892836033</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>1137122</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1075128</v>
+        <v>1077366</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1201266</v>
+        <v>1205923</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3229425776993523</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3053361271684176</v>
+        <v>0.3059718724081247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3411593674215225</v>
+        <v>0.3424821418422246</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1188</v>
@@ -8292,19 +8292,19 @@
         <v>862875</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>819791</v>
+        <v>818471</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>912269</v>
+        <v>910390</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2316405684674167</v>
+        <v>0.2316405684674166</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2200746783805126</v>
+        <v>0.2197201624772699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2449004262666542</v>
+        <v>0.2443961297321402</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2148</v>
@@ -8313,19 +8313,19 @@
         <v>1999997</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1921452</v>
+        <v>1923917</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2076799</v>
+        <v>2084226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2760067978226499</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2651673290449659</v>
+        <v>0.2655075107163967</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2866056767506223</v>
+        <v>0.2876306338915271</v>
       </c>
     </row>
     <row r="27">
